--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyou\Desktop\01.18PJ\zww-h5-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyou\Desktop\01.18PJ\zww-h5-doc\project-docment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="接口开发" sheetId="2" r:id="rId2"/>
+    <sheet name="接口一览" sheetId="2" r:id="rId2"/>
+    <sheet name="个人中心" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +121,244 @@
   </si>
   <si>
     <t>实际开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/user/insertUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回参数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retnCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retnDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方传入的用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回状态描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回json样式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表操作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型：insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表ID：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxopen_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySql生成的自增值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空串</t>
+  </si>
+  <si>
+    <t>空串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表ID:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录表的主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方传入的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数【loginUserName】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red_packet_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invite_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用函数生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐码生成函数：CodeRuleUtils.inviteCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,12 +391,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -166,12 +420,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,6 +455,205 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76975B2A-D2E5-43EF-9C8D-FA17CA25CE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211580" y="3855720"/>
+          <a:ext cx="4274820" cy="1356360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"data": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		"userId": "123456"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>328264</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>72111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9765A5D-A18A-4BCD-BEC0-DF3BD3FD2AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5814060" y="5730240"/>
+          <a:ext cx="10409524" cy="2228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>324456</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>155798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E0F579-7323-42A1-993D-C60381B2C4E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="8077200"/>
+          <a:ext cx="10390476" cy="3295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -743,4 +1202,528 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:K62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="K57" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyou\Desktop\01.18PJ\zww-h5-doc\project-docment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyou\Desktop\01.18PJ\zww-h5\project-docment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="97">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,6 +355,62 @@
   </si>
   <si>
     <t>推荐码生成函数：CodeRuleUtils.inviteCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/user/updateUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型：update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新条件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表.user_id=请求参数.userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表.effective=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数.userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/user/showUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,15 +435,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -414,13 +472,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +498,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,6 +727,91 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85119A4-64B1-4602-AF59-730E3CD6CB8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="15072360"/>
+          <a:ext cx="4274820" cy="1356360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1206,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:K62"/>
+  <dimension ref="B3:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1219,6 +1380,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>24</v>
@@ -1267,11 +1429,11 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
@@ -1375,35 +1537,35 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
@@ -1413,11 +1575,11 @@
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
@@ -1427,25 +1589,25 @@
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
@@ -1455,16 +1617,16 @@
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
@@ -1473,49 +1635,49 @@
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
@@ -1525,67 +1687,67 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
@@ -1595,11 +1757,11 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
@@ -1609,28 +1771,28 @@
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H57" s="3"/>
       <c r="K57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
@@ -1640,15 +1802,697 @@
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D103" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D104" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="113" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C119" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C120" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C124" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="I124" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C125" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C126" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C127" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C128" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128" s="3"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C129" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129" s="3"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C130" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H130" s="3"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C131" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H131" s="3"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C132" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H132" s="3"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C133" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H133" s="3"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C134" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C135" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C136" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136" s="3"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137" s="3"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C138" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" s="3"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C139" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139" s="3"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C140" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" s="3"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C141" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H141" s="3"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C142" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" s="3"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C143" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C144" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
+  <mergeCells count="193">
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="A113:XFD113"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G120:H120"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -1661,7 +2505,6 @@
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="E48:F48"/>
@@ -1677,6 +2520,16 @@
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="E47:F47"/>
@@ -1685,41 +2538,62 @@
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A69:XFD69"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
